--- a/Montana_MCA_NCIC_codes_lists_20180108.xlsx
+++ b/Montana_MCA_NCIC_codes_lists_20180108.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikejacobson/Documents/SEARCH/LENS project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikejacobson/Documents/SEARCH/LENS project/DHS-LENSgit/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,6 +16,9 @@
     <sheet name="NCIC codes" sheetId="3" r:id="rId2"/>
     <sheet name="NCIC code + MT MCA" sheetId="4" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'NCIC code + MT MCA'!$A$1:$D$989</definedName>
+  </definedNames>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -43362,7 +43365,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -57220,6 +57223,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D989"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>